--- a/ATS AGOSTO.xlsx
+++ b/ATS AGOSTO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LAICA 2023\DECLARACIONES\JULIO 104 Y 103\ATS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\PycharmProjects\xmlfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D65B6630-5622-4140-83DD-EC1A14CAD062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5BB49F45-2BE5-4E6F-B3BC-D04F5F200526}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,8 +22,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{5FF1DC63-3ABF-42B9-8281-C0A61A8A4A5F}" name="AT-072023" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="AT-072023" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\mfrancoj\Downloads\AT-072023.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -1314,7 +1313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1466,147 +1465,148 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{881A05FB-D944-4484-8788-73EB28387AD0}" name="Tabla1" displayName="Tabla1" ref="A1:AU217" tableType="xml" totalsRowShown="0" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:AU217" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:AU217"/>
   <tableColumns count="47">
-    <tableColumn id="1" xr3:uid="{BB1CA8AC-CBE8-4658-B0F3-29D60446DFF6}" uniqueName="TipoIDInformante" name="TipoIDInformante">
+    <tableColumn id="1" uniqueName="TipoIDInformante" name="TipoIDInformante">
       <xmlColumnPr mapId="1" xpath="/iva/TipoIDInformante" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{040F71C5-003B-4B82-8167-9225244ADB6F}" uniqueName="IdInformante" name="IdInformante">
+    <tableColumn id="2" uniqueName="IdInformante" name="IdInformante">
       <xmlColumnPr mapId="1" xpath="/iva/IdInformante" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1B8182F2-8E38-42FD-860A-58B543A009E5}" uniqueName="razonSocial" name="razonSocial">
+    <tableColumn id="3" uniqueName="razonSocial" name="razonSocial">
       <xmlColumnPr mapId="1" xpath="/iva/razonSocial" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4AB598D9-4F7A-4363-90D8-5E3C32B9265D}" uniqueName="Anio" name="Anio">
+    <tableColumn id="4" uniqueName="Anio" name="Anio">
       <xmlColumnPr mapId="1" xpath="/iva/Anio" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6FB44B87-0C2B-4041-BE48-D7ED72C39DD1}" uniqueName="Mes" name="Mes">
+    <tableColumn id="5" uniqueName="Mes" name="Mes">
       <xmlColumnPr mapId="1" xpath="/iva/Mes" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DF5B80DD-106C-4A31-81EE-77604C8E886A}" uniqueName="numEstabRuc" name="numEstabRuc">
+    <tableColumn id="6" uniqueName="numEstabRuc" name="numEstabRuc">
       <xmlColumnPr mapId="1" xpath="/iva/numEstabRuc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{930D9B9D-1CEA-4891-9CF7-5C8C496AB705}" uniqueName="totalVentas" name="totalVentas">
+    <tableColumn id="7" uniqueName="totalVentas" name="totalVentas">
       <xmlColumnPr mapId="1" xpath="/iva/totalVentas" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5035D009-044C-4475-B209-7529A80EA985}" uniqueName="codigoOperativo" name="codigoOperativo">
+    <tableColumn id="8" uniqueName="codigoOperativo" name="codigoOperativo">
       <xmlColumnPr mapId="1" xpath="/iva/codigoOperativo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{43AF826C-0EB5-4BC7-953D-412BB9A4D80D}" uniqueName="codSustento" name="codSustento">
+    <tableColumn id="9" uniqueName="codSustento" name="codSustento">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/codSustento" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E9B8D916-D148-4D53-81ED-4949808B40C9}" uniqueName="tpIdProv" name="tpIdProv">
+    <tableColumn id="10" uniqueName="tpIdProv" name="tpIdProv">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/tpIdProv" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4B5790B9-6D55-4915-B680-63901950A97E}" uniqueName="idProv" name="idProv">
+    <tableColumn id="11" uniqueName="idProv" name="idProv">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/idProv" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5FF4A4FA-55FA-488B-A9FA-B44867C4CF68}" uniqueName="tipoComprobante" name="tipoComprobante">
+    <tableColumn id="12" uniqueName="tipoComprobante" name="tipoComprobante">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/tipoComprobante" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{2EC0CFCE-37B4-4104-9704-D3681ABD40B7}" uniqueName="parteRel" name="parteRel">
+    <tableColumn id="13" uniqueName="parteRel" name="parteRel">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/parteRel" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{01BD85CD-B337-40D7-B91B-A5E5322931A2}" uniqueName="fechaRegistro" name="fechaRegistro">
+    <tableColumn id="14" uniqueName="fechaRegistro" name="fechaRegistro">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/fechaRegistro" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{CB56E423-4250-4A64-8244-C56A0B9F5DB1}" uniqueName="establecimiento" name="establecimiento">
+    <tableColumn id="15" uniqueName="establecimiento" name="establecimiento">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/establecimiento" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{146247FF-58E4-46BF-9422-F8D1BA98EB88}" uniqueName="puntoEmision" name="puntoEmision">
+    <tableColumn id="16" uniqueName="puntoEmision" name="puntoEmision">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/puntoEmision" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2533AAD8-1221-48FD-90AE-A15105107C0A}" uniqueName="secuencial" name="secuencial">
+    <tableColumn id="17" uniqueName="secuencial" name="secuencial">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/secuencial" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{78D2EA85-E2C6-4C77-B999-0F04FD33F277}" uniqueName="fechaEmision" name="fechaEmision">
+    <tableColumn id="18" uniqueName="fechaEmision" name="fechaEmision">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/fechaEmision" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{40291534-CA6E-408C-B6B1-F4D03D595BC7}" uniqueName="autorizacion" name="autorizacion">
+    <tableColumn id="19" uniqueName="autorizacion" name="autorizacion">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/autorizacion" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{4F2CE2C1-5CB7-45C2-90A2-A718955E856C}" uniqueName="baseNoGraIva" name="baseNoGraIva">
+    <tableColumn id="20" uniqueName="baseNoGraIva" name="baseNoGraIva">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/baseNoGraIva" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{CECA6728-7B0A-42D0-9422-F7BA31FA342F}" uniqueName="baseImponible" name="baseImponible">
+    <tableColumn id="21" uniqueName="baseImponible" name="baseImponible">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/baseImponible" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{FFC45AC8-4661-456E-B157-69961941C04B}" uniqueName="baseImpGrav" name="baseImpGrav">
+    <tableColumn id="22" uniqueName="baseImpGrav" name="baseImpGrav">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/baseImpGrav" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{3CC93746-B6C7-4DA0-B9F8-B84C3C666C07}" uniqueName="baseImpExe" name="baseImpExe">
+    <tableColumn id="23" uniqueName="baseImpExe" name="baseImpExe">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/baseImpExe" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{BF5FD25D-CDFE-467E-BC5C-1E61A4B30B3B}" uniqueName="montoIce" name="montoIce">
+    <tableColumn id="24" uniqueName="montoIce" name="montoIce">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/montoIce" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{E62CF3BF-0F45-408C-B84F-4CA968FADEAA}" uniqueName="montoIva" name="montoIva">
+    <tableColumn id="25" uniqueName="montoIva" name="montoIva">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/montoIva" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{598C53A9-ACD0-4473-911E-28EF175F31FC}" uniqueName="valRetBien10" name="valRetBien10">
+    <tableColumn id="26" uniqueName="valRetBien10" name="valRetBien10">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/valRetBien10" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{76E0B1B3-0589-4AA6-9A28-ADF9C7BA78A7}" uniqueName="valRetServ20" name="valRetServ20">
+    <tableColumn id="27" uniqueName="valRetServ20" name="valRetServ20">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/valRetServ20" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{03586F2E-2E7A-4A08-B787-503E3BD6BF6A}" uniqueName="valorRetBienes" name="valorRetBienes">
+    <tableColumn id="28" uniqueName="valorRetBienes" name="valorRetBienes">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/valorRetBienes" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{791A9923-068E-4E67-90A5-5DF1E7C720A7}" uniqueName="valRetServ50" name="valRetServ50">
+    <tableColumn id="29" uniqueName="valRetServ50" name="valRetServ50">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/valRetServ50" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{2E7F7F35-BBE6-4CD7-B90E-6E775DA0E049}" uniqueName="valorRetServicios" name="valorRetServicios">
+    <tableColumn id="30" uniqueName="valorRetServicios" name="valorRetServicios">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/valorRetServicios" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{88109117-FFAE-4F7D-B5B2-8AB755D9B6FE}" uniqueName="valRetServ100" name="valRetServ100">
+    <tableColumn id="31" uniqueName="valRetServ100" name="valRetServ100">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/valRetServ100" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{A25AE880-D27C-4778-BFA4-EFB4A0A3F779}" uniqueName="valorRetencionNc" name="valorRetencionNc">
+    <tableColumn id="32" uniqueName="valorRetencionNc" name="valorRetencionNc">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/valorRetencionNc" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{7643BBEE-8B7B-4D24-A689-B7281E0EB8DB}" uniqueName="totbasesImpReemb" name="totbasesImpReemb">
+    <tableColumn id="33" uniqueName="totbasesImpReemb" name="totbasesImpReemb">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/totbasesImpReemb" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{4D2F8C5C-CA44-4FE1-B82E-DD606E490148}" uniqueName="pagoLocExt" name="pagoLocExt">
+    <tableColumn id="34" uniqueName="pagoLocExt" name="pagoLocExt">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/pagoExterior/pagoLocExt" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{398909BA-4677-45C5-A5D7-1F9137339CA7}" uniqueName="paisEfecPago" name="paisEfecPago">
+    <tableColumn id="35" uniqueName="paisEfecPago" name="paisEfecPago">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/pagoExterior/paisEfecPago" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{9CD532E0-2C64-44E9-AC32-12BB16F4565E}" uniqueName="aplicConvDobTrib" name="aplicConvDobTrib">
+    <tableColumn id="36" uniqueName="aplicConvDobTrib" name="aplicConvDobTrib">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/pagoExterior/aplicConvDobTrib" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{77F81249-13F0-4A87-A7E9-ABC0AA3B44BE}" uniqueName="pagExtSujRetNorLeg" name="pagExtSujRetNorLeg">
+    <tableColumn id="37" uniqueName="pagExtSujRetNorLeg" name="pagExtSujRetNorLeg">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/pagoExterior/pagExtSujRetNorLeg" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{60AD475D-A796-4A1E-AF94-9150244AF754}" uniqueName="codRetAir" name="codRetAir">
+    <tableColumn id="38" uniqueName="codRetAir" name="codRetAir">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/air/detalleAir/codRetAir" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{A06D5BB3-4548-4D4F-9CDC-356DED29D9EE}" uniqueName="baseImpAir" name="baseImpAir">
+    <tableColumn id="39" uniqueName="baseImpAir" name="baseImpAir">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/air/detalleAir/baseImpAir" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{821301B8-ABA5-4D6A-A756-52810CCEC6E2}" uniqueName="porcentajeAir" name="porcentajeAir">
+    <tableColumn id="40" uniqueName="porcentajeAir" name="porcentajeAir">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/air/detalleAir/porcentajeAir" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{AFB8833A-C84A-4BD2-9004-BB3D944C7DDB}" uniqueName="valRetAir" name="valRetAir">
+    <tableColumn id="41" uniqueName="valRetAir" name="valRetAir">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/air/detalleAir/valRetAir" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{22010248-09EE-4429-8011-5DD70D2F5474}" uniqueName="estabRetencion1" name="estabRetencion1">
+    <tableColumn id="42" uniqueName="estabRetencion1" name="estabRetencion1">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/estabRetencion1" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{860EAAB8-7EB2-4703-9989-81F834FB64B8}" uniqueName="ptoEmiRetencion1" name="ptoEmiRetencion1">
+    <tableColumn id="43" uniqueName="ptoEmiRetencion1" name="ptoEmiRetencion1">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/ptoEmiRetencion1" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{8C2CFBF9-BB78-4BB8-9C44-FB5948C08DDF}" uniqueName="secRetencion1" name="secRetencion1">
+    <tableColumn id="44" uniqueName="secRetencion1" name="secRetencion1">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/secRetencion1" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{AB4F8B69-4088-4342-8DB3-93961645C4FE}" uniqueName="autRetencion1" name="autRetencion1">
+    <tableColumn id="45" uniqueName="autRetencion1" name="autRetencion1">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/autRetencion1" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{D77553C0-58FD-4DE4-9F3D-ACEE6DAD11FB}" uniqueName="fechaEmiRet1" name="fechaEmiRet1">
+    <tableColumn id="46" uniqueName="fechaEmiRet1" name="fechaEmiRet1">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/fechaEmiRet1" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{4A9051B0-12F8-4ABB-9F66-5AF4A572861B}" uniqueName="formaPago" name="formaPago">
+    <tableColumn id="47" uniqueName="formaPago" name="formaPago">
       <xmlColumnPr mapId="1" xpath="/iva/compras/detalleCompras/formasDePago/formaPago" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1910,10 +1910,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
@@ -19884,13 +19884,13 @@
         <v>2</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K128">
-        <v>1207495530</v>
+        <v>1207495530001</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>50</v>
